--- a/wenjian/3月份咨询组工作量明细统计模板.xlsx
+++ b/wenjian/3月份咨询组工作量明细统计模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>人员级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,18 +74,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>***</t>
+    <t>王亚飞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>录入货币基金万份收益930条（从万得查找基金万份收益整理导入系统）
+共募基金净值型资产报价导入（从万得查找基金万份收益整理导入系统）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,15 +212,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -227,6 +232,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -273,7 +286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,9 +318,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,6 +353,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,22 +529,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B25"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="29.75" customWidth="1"/>
     <col min="4" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="57.25" customWidth="1"/>
     <col min="8" max="9" width="21.125" customWidth="1"/>
     <col min="10" max="10" width="21.125" style="2" customWidth="1"/>
@@ -537,68 +552,68 @@
     <col min="12" max="12" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="9"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="10"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>23</v>
       </c>
       <c r="D3" s="4">
@@ -612,7 +627,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="10">
+      <c r="K3" s="8">
         <f>SUM(I3:I25)</f>
         <v>0</v>
       </c>
@@ -620,10 +635,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="4">
         <v>42796</v>
       </c>
@@ -635,13 +650,13 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="10"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="7"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="4">
         <v>42797</v>
       </c>
@@ -653,13 +668,13 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="10"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="4">
         <v>42800</v>
       </c>
@@ -671,13 +686,13 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="10"/>
+      <c r="K6" s="8"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="4">
         <v>42801</v>
       </c>
@@ -685,17 +700,19 @@
         <v>42801</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="10"/>
+      <c r="K7" s="8"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="7"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="4">
         <v>42802</v>
       </c>
@@ -707,13 +724,13 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="10"/>
+      <c r="K8" s="8"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="4">
         <v>42803</v>
       </c>
@@ -725,13 +742,13 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="10"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="4">
         <v>42804</v>
       </c>
@@ -743,13 +760,13 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="10"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="4">
         <v>42807</v>
       </c>
@@ -761,13 +778,13 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="10"/>
+      <c r="K11" s="8"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="9"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="4">
         <v>42808</v>
       </c>
@@ -779,13 +796,13 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="10"/>
+      <c r="K12" s="8"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="9"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="4">
         <v>42809</v>
       </c>
@@ -797,13 +814,13 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="8"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A14" s="9"/>
+    <row r="14" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="4">
         <v>42810</v>
       </c>
@@ -815,13 +832,13 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="10"/>
+      <c r="K14" s="8"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="50.25" customHeight="1">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="4">
         <v>42811</v>
       </c>
@@ -833,13 +850,13 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="10"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="50.25" customHeight="1">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="4">
         <v>42814</v>
       </c>
@@ -851,13 +868,13 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="10"/>
+      <c r="K16" s="8"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="58.5" customHeight="1">
-      <c r="A17" s="9"/>
+    <row r="17" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="4">
         <v>42815</v>
       </c>
@@ -869,13 +886,13 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="10"/>
+      <c r="K17" s="8"/>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="70.5" customHeight="1">
-      <c r="A18" s="9"/>
+    <row r="18" spans="1:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="4">
         <v>42816</v>
       </c>
@@ -887,13 +904,13 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="10"/>
+      <c r="K18" s="8"/>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="66" customHeight="1">
-      <c r="A19" s="9"/>
+    <row r="19" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="4">
         <v>42817</v>
       </c>
@@ -905,13 +922,13 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="10"/>
+      <c r="K19" s="8"/>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="66" customHeight="1">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="4">
         <v>42818</v>
       </c>
@@ -923,13 +940,13 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="10"/>
+      <c r="K20" s="8"/>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="66" customHeight="1">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="9"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="4">
         <v>42821</v>
       </c>
@@ -941,13 +958,13 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="10"/>
+      <c r="K21" s="8"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="66" customHeight="1">
-      <c r="A22" s="9"/>
+    <row r="22" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="9"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="4">
         <v>42822</v>
       </c>
@@ -959,13 +976,13 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="10"/>
+      <c r="K22" s="8"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="66" customHeight="1">
-      <c r="A23" s="9"/>
+    <row r="23" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="9"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="4">
         <v>42823</v>
       </c>
@@ -977,13 +994,13 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="10"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="66" customHeight="1">
-      <c r="A24" s="9"/>
+    <row r="24" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="9"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="4">
         <v>42824</v>
       </c>
@@ -995,13 +1012,13 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="10"/>
+      <c r="K24" s="8"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="66" customHeight="1">
-      <c r="A25" s="9"/>
+    <row r="25" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="9"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="4">
         <v>42825</v>
       </c>
@@ -1013,16 +1030,11 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="10"/>
+      <c r="K25" s="8"/>
       <c r="L25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="L3:L25"/>
-    <mergeCell ref="A3:A25"/>
-    <mergeCell ref="B3:B25"/>
-    <mergeCell ref="C3:C25"/>
-    <mergeCell ref="K3:K25"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="J1:J2"/>
@@ -1034,6 +1046,11 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="L3:L25"/>
+    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="B3:B25"/>
+    <mergeCell ref="C3:C25"/>
+    <mergeCell ref="K3:K25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1042,12 +1059,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1056,12 +1073,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
